--- a/documents/requirement.xlsx
+++ b/documents/requirement.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="72" windowWidth="20100" windowHeight="8232" activeTab="1"/>
+    <workbookView xWindow="195" yWindow="75" windowWidth="20100" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="req list" sheetId="1" r:id="rId1"/>
+    <sheet name="spreeds" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="88">
   <si>
     <t>Χρήση openweathermap API και JSON API για την ενημέρωση των τρεχουσών καιρικών δεδομένων.</t>
   </si>
@@ -324,12 +325,40 @@
   <si>
     <t>Σύνολο ωρών</t>
   </si>
+  <si>
+    <r>
+      <t>Πρόβλεψη καιρού 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ης</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ημέρας (αντίστοιχο κουμπί).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +464,31 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -595,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -660,38 +714,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,7 +788,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -986,22 +1075,22 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="78.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="78.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="41.45" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
@@ -1041,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1061,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.6">
+    <row r="4" spans="1:6" ht="44.25">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
         <v>34</v>
@@ -1097,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
         <v>5</v>
@@ -1189,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
         <v>40</v>
@@ -1207,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="4"/>
       <c r="B12" s="7" t="s">
         <v>41</v>
@@ -1281,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
         <v>46</v>
@@ -1299,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
         <v>47</v>
@@ -1353,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
         <v>50</v>
@@ -1427,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="4"/>
       <c r="B24" s="7">
         <v>5.2</v>
@@ -1553,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -1677,43 +1766,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="41.4" customHeight="1" thickBot="1">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:5" ht="41.45" customHeight="1" thickBot="1">
+      <c r="B1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="22.8" customHeight="1" thickBot="1">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:5" ht="22.9" customHeight="1" thickBot="1">
+      <c r="B2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.6">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75">
       <c r="B3" s="13">
         <v>1</v>
       </c>
@@ -1727,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="30.6">
+    <row r="4" spans="2:5" ht="30.75">
       <c r="B4" s="17" t="s">
         <v>33</v>
       </c>
@@ -1741,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="45.6">
+    <row r="5" spans="2:5" ht="45.75">
       <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
@@ -1755,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15.6">
+    <row r="6" spans="2:5" ht="15.75">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
@@ -1769,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="30.6">
+    <row r="7" spans="2:5" ht="30.75">
       <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.6">
+    <row r="8" spans="2:5" ht="15.75">
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1797,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.6">
+    <row r="9" spans="2:5" ht="15.75">
       <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
@@ -1817,7 +1906,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="2:5" ht="15.6">
+    <row r="11" spans="2:5" ht="15.75">
       <c r="B11" s="17" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.6">
+    <row r="12" spans="2:5" ht="15.75">
       <c r="B12" s="17" t="s">
         <v>39</v>
       </c>
@@ -1851,7 +1940,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="2:5" ht="30.6">
+    <row r="14" spans="2:5" ht="30.75">
       <c r="B14" s="17" t="s">
         <v>40</v>
       </c>
@@ -1865,7 +1954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30.6">
+    <row r="15" spans="2:5" ht="30.75">
       <c r="B15" s="17" t="s">
         <v>41</v>
       </c>
@@ -1879,7 +1968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15.6">
+    <row r="16" spans="2:5" ht="15.75">
       <c r="B16" s="17" t="s">
         <v>45</v>
       </c>
@@ -1893,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30.6">
+    <row r="17" spans="2:5" ht="30.75">
       <c r="B17" s="17" t="s">
         <v>47</v>
       </c>
@@ -1907,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18">
+    <row r="18" spans="2:5" ht="18.75">
       <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
@@ -1921,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="16.2" thickBot="1">
+    <row r="19" spans="2:5" ht="16.5" thickBot="1">
       <c r="B19" s="22" t="s">
         <v>49</v>
       </c>
@@ -1935,8 +2024,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1">
-      <c r="C20" s="33" t="s">
+    <row r="20" spans="2:5" ht="15.75" thickBot="1">
+      <c r="C20" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="26">
@@ -1944,15 +2033,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="22.2" customHeight="1" thickBot="1">
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="2:5" ht="22.15" customHeight="1" thickBot="1">
+      <c r="B21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.6">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75">
       <c r="B22" s="13" t="s">
         <v>42</v>
       </c>
@@ -1966,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30.6">
+    <row r="23" spans="2:5" ht="30.75">
       <c r="B23" s="17" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15.6">
+    <row r="24" spans="2:5" ht="15.75">
       <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
@@ -1994,7 +2083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15.6">
+    <row r="25" spans="2:5" ht="15.75">
       <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
@@ -2008,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15.6">
+    <row r="26" spans="2:5" ht="15.75">
       <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
@@ -2028,7 +2117,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="2:5" ht="30.6">
+    <row r="28" spans="2:5" ht="30.75">
       <c r="B28" s="17" t="s">
         <v>50</v>
       </c>
@@ -2042,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15.6">
+    <row r="29" spans="2:5" ht="15.75">
       <c r="B29" s="17" t="s">
         <v>51</v>
       </c>
@@ -2056,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="30.6">
+    <row r="30" spans="2:5" ht="30.75">
       <c r="B30" s="17">
         <v>5.2</v>
       </c>
@@ -2070,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="15.6">
+    <row r="31" spans="2:5" ht="15.75">
       <c r="B31" s="17" t="s">
         <v>55</v>
       </c>
@@ -2084,7 +2173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.6">
+    <row r="32" spans="2:5" ht="15.75">
       <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
@@ -2098,7 +2187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15.6">
+    <row r="33" spans="2:5" ht="15.75">
       <c r="B33" s="17" t="s">
         <v>59</v>
       </c>
@@ -2112,7 +2201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="16.2" thickBot="1">
+    <row r="34" spans="2:5" ht="16.5" thickBot="1">
       <c r="B34" s="28" t="s">
         <v>65</v>
       </c>
@@ -2126,8 +2215,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1">
-      <c r="C35" s="33" t="s">
+    <row r="35" spans="2:5" ht="15.75" thickBot="1">
+      <c r="C35" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D35" s="26">
@@ -2135,15 +2224,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="18.600000000000001" thickBot="1">
-      <c r="B36" s="31" t="s">
+    <row r="36" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B36" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-    </row>
-    <row r="37" spans="2:5" ht="15.6">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75">
       <c r="B37" s="13" t="s">
         <v>43</v>
       </c>
@@ -2157,7 +2246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15.6">
+    <row r="38" spans="2:5" ht="15.75">
       <c r="B38" s="17" t="s">
         <v>52</v>
       </c>
@@ -2171,7 +2260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15.6">
+    <row r="39" spans="2:5" ht="15.75">
       <c r="B39" s="29" t="s">
         <v>66</v>
       </c>
@@ -2185,7 +2274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15.6">
+    <row r="40" spans="2:5" ht="15.75">
       <c r="B40" s="29" t="s">
         <v>67</v>
       </c>
@@ -2205,7 +2294,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="2:5" ht="15.6">
+    <row r="42" spans="2:5" ht="15.75">
       <c r="B42" s="17" t="s">
         <v>60</v>
       </c>
@@ -2219,7 +2308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="30.6">
+    <row r="43" spans="2:5" ht="30.75">
       <c r="B43" s="29" t="s">
         <v>62</v>
       </c>
@@ -2233,7 +2322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="15.6">
+    <row r="44" spans="2:5" ht="15.75">
       <c r="B44" s="29" t="s">
         <v>63</v>
       </c>
@@ -2247,7 +2336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="16.2" thickBot="1">
+    <row r="45" spans="2:5" ht="16.5" thickBot="1">
       <c r="B45" s="28">
         <v>8</v>
       </c>
@@ -2261,8 +2350,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="15" thickBot="1">
-      <c r="C46" s="33" t="s">
+    <row r="46" spans="2:5" ht="15.75" thickBot="1">
+      <c r="C46" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="26">
@@ -2283,12 +2372,834 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="51" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="51" customHeight="1" thickBot="1">
+      <c r="A1" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.75" customHeight="1">
+      <c r="A3" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A4" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A10" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A11" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1">
+      <c r="A13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A14" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" customHeight="1">
+      <c r="A15" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A16" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A18" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A21" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A22" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21" customHeight="1">
+      <c r="A23" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A24" s="46">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1">
+      <c r="A25" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A26" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A27" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" customHeight="1">
+      <c r="A29" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A31" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A32" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A33" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A34" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A35" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A36" s="50">
+        <v>8</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="48">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.140625" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="15" style="48" customWidth="1"/>
+    <col min="4" max="16384" width="42.140625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A1" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="48" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A3" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A4" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A10" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A11" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="48" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="48" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A16" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="48" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A18" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="48" customFormat="1" ht="12.75">
+      <c r="A19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="48" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A22" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A23" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A24" s="46">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="48" customFormat="1" ht="27" customHeight="1">
+      <c r="A27" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A31" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="48" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A32" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="48" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A35" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="50">
+        <v>8</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="48">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/requirement.xlsx
+++ b/documents/requirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="20100" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="195" yWindow="75" windowWidth="20100" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="req list" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="90">
   <si>
     <t>Χρήση openweathermap API και JSON API για την ενημέρωση των τρεχουσών καιρικών δεδομένων.</t>
   </si>
@@ -352,6 +352,12 @@
       </rPr>
       <t xml:space="preserve"> ημέρας (αντίστοιχο κουμπί).</t>
     </r>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
   </si>
 </sst>
 </file>
@@ -725,24 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -777,6 +765,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,7 +1081,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F36"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
@@ -1189,7 +1195,7 @@
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -1766,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1795,12 +1801,12 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="22.9" customHeight="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="15.75">
       <c r="B3" s="13">
@@ -1860,7 +1866,7 @@
     </row>
     <row r="7" spans="2:5" ht="30.75">
       <c r="B7" s="17" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>3</v>
@@ -2034,12 +2040,12 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="22.15" customHeight="1" thickBot="1">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="15.75">
       <c r="B22" s="13" t="s">
@@ -2146,8 +2152,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="30.75">
-      <c r="B30" s="17">
-        <v>5.2</v>
+      <c r="B30" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>14</v>
@@ -2225,12 +2231,12 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" spans="2:5" ht="15.75">
       <c r="B37" s="13" t="s">
@@ -2374,410 +2380,410 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" style="35" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A2" s="46">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.75" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="48">
+      <c r="B5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="B7" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A24" s="46">
+      <c r="A24" s="40">
         <v>5.2</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A36" s="50">
+      <c r="A36" s="44">
         <v>8</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="42">
         <v>4</v>
       </c>
     </row>
@@ -2797,405 +2803,405 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.140625" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="15" style="48" customWidth="1"/>
-    <col min="4" max="16384" width="42.140625" style="48"/>
+    <col min="1" max="1" width="10.7109375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15" style="42" customWidth="1"/>
+    <col min="4" max="16384" width="42.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="48" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="46">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="48">
+      <c r="B5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="B7" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="C9" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A11" s="46" t="s">
+      <c r="C10" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="48" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A13" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="48" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="C13" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A14" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="42">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:3" ht="18" customHeight="1">
+      <c r="A15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A16" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="C16" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A17" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="48" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="48" customFormat="1" ht="12.75">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:3" ht="12.75">
+      <c r="A19" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A20" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="48" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A22" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="42">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A23" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="46">
+      <c r="C23" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A24" s="40">
         <v>5.2</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="48" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:3" ht="21" customHeight="1">
+      <c r="A25" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="48" customFormat="1" ht="27" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="C26" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27" customHeight="1">
+      <c r="A27" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A28" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="46" t="s">
+      <c r="C28" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" customHeight="1">
+      <c r="A29" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="42">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="48" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A31" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="42">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="48" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="42">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="50" t="s">
+    <row r="33" spans="1:3" ht="18" customHeight="1">
+      <c r="A33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="50" t="s">
+    <row r="34" spans="1:3" ht="18" customHeight="1">
+      <c r="A34" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="42">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="48" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A35" s="50" t="s">
+    <row r="35" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="42">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="50">
+    <row r="36" spans="1:3" ht="18" customHeight="1">
+      <c r="A36" s="44">
         <v>8</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="42">
         <v>7</v>
       </c>
     </row>

--- a/documents/requirement.xlsx
+++ b/documents/requirement.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="20100" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="195" yWindow="75" windowWidth="20100" windowHeight="8235" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="req list" sheetId="1" r:id="rId1"/>
-    <sheet name="spreeds" sheetId="2" r:id="rId2"/>
+    <sheet name="sprints" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Φύλλο1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
   <si>
     <t>Χρήση openweathermap API και JSON API για την ενημέρωση των τρεχουσών καιρικών δεδομένων.</t>
   </si>
@@ -312,15 +313,6 @@
   </si>
   <si>
     <t>Προτεραιότητα (planning poker)</t>
-  </si>
-  <si>
-    <t>Spreed 1</t>
-  </si>
-  <si>
-    <t>spreed 2</t>
-  </si>
-  <si>
-    <t>spreed 3</t>
   </si>
   <si>
     <t>Σύνολο ωρών</t>
@@ -359,12 +351,21 @@
   <si>
     <t>2.3.1</t>
   </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +496,20 @@
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="3">
@@ -655,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -783,6 +798,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,7 +1221,7 @@
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -1772,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1802,7 +1828,7 @@
     </row>
     <row r="2" spans="2:5" ht="22.9" customHeight="1" thickBot="1">
       <c r="B2" s="48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -1866,7 +1892,7 @@
     </row>
     <row r="7" spans="2:5" ht="30.75">
       <c r="B7" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>3</v>
@@ -1990,88 +2016,88 @@
     </row>
     <row r="17" spans="2:5" ht="30.75">
       <c r="B17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30.75">
+      <c r="B18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="19">
-        <v>4</v>
-      </c>
-      <c r="E17" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18.75">
-      <c r="B18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="D18" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="2:5" ht="18.75">
+      <c r="B19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="24">
-        <v>4</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D20" s="24">
+        <v>4</v>
+      </c>
+      <c r="E20" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1">
-      <c r="C20" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="26">
-        <f>SUM(D3:D19)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="22.15" customHeight="1" thickBot="1">
-      <c r="B21" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75">
-      <c r="B22" s="13" t="s">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1">
+      <c r="C21" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="26">
+        <f>SUM(D3:D20)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="22.15" customHeight="1" thickBot="1">
+      <c r="B22" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75">
+      <c r="B23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="E22" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="30.75">
-      <c r="B23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="19">
-        <v>2</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="E23" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2153,7 +2179,7 @@
     </row>
     <row r="30" spans="2:5" ht="30.75">
       <c r="B30" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>14</v>
@@ -2223,16 +2249,16 @@
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1">
       <c r="C35" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D35" s="26">
-        <f>SUM(D22:D34)</f>
-        <v>35</v>
+        <f>SUM(D23:D34)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="19.5" thickBot="1">
       <c r="B36" s="51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
@@ -2358,7 +2384,7 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1">
       <c r="C46" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D46" s="26">
         <f>SUM(D37:D45)</f>
@@ -2368,7 +2394,7 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,7 +2609,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="42">
         <v>2</v>
@@ -3001,7 +3027,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="42">
         <v>3</v>
@@ -3208,4 +3234,179 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8" style="56" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="57" customWidth="1"/>
+    <col min="3" max="16384" width="12.5703125" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" thickBot="1">
+      <c r="A1" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24" customHeight="1" thickBot="1">
+      <c r="A2" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1">
+      <c r="A9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19">
+        <v>4</v>
+      </c>
+      <c r="D9" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1">
+      <c r="A10" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="19">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24" customHeight="1" thickBot="1">
+      <c r="A11" s="28">
+        <v>8</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="24">
+        <v>4</v>
+      </c>
+      <c r="D11" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1">
+      <c r="A12"/>
+      <c r="B12" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="26">
+        <f>SUM(C3:C11)</f>
+        <v>32</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/requirement.xlsx
+++ b/documents/requirement.xlsx
@@ -4,21 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="20100" windowHeight="8235" activeTab="4"/>
+    <workbookView xWindow="195" yWindow="75" windowWidth="20100" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="req list" sheetId="1" r:id="rId1"/>
     <sheet name="sprints" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Φύλλο1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
   <si>
     <t>Χρήση openweathermap API και JSON API για την ενημέρωση των τρεχουσών καιρικών δεδομένων.</t>
   </si>
@@ -318,34 +315,6 @@
     <t>Σύνολο ωρών</t>
   </si>
   <si>
-    <r>
-      <t>Πρόβλεψη καιρού 1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ης</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ημέρας (αντίστοιχο κουμπί).</t>
-    </r>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
@@ -365,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,45 +441,6 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -670,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -746,41 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,17 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1221,7 +1105,7 @@
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -1798,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1808,8 +1692,8 @@
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
+    <col min="6" max="16" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="41.45" customHeight="1" thickBot="1">
@@ -1827,12 +1711,12 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="22.9" customHeight="1" thickBot="1">
-      <c r="B2" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="15.75">
       <c r="B3" s="13">
@@ -1892,7 +1776,7 @@
     </row>
     <row r="7" spans="2:5" ht="30.75">
       <c r="B7" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>3</v>
@@ -2080,12 +1964,12 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="22.15" customHeight="1" thickBot="1">
-      <c r="B22" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="B22" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="2:5" ht="15.75">
       <c r="B23" s="13" t="s">
@@ -2179,7 +2063,7 @@
     </row>
     <row r="30" spans="2:5" ht="30.75">
       <c r="B30" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>14</v>
@@ -2257,12 +2141,12 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B36" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
+      <c r="B36" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="2:5" ht="15.75">
       <c r="B37" s="13" t="s">
@@ -2400,1013 +2284,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="51" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A2" s="40">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.75" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A9" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A10" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A11" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1">
-      <c r="A12" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1">
-      <c r="A13" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A14" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A16" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A17" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A18" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A19" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A20" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1">
-      <c r="A23" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A24" s="40">
-        <v>5.2</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A26" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A27" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A28" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A31" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A32" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A34" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A35" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A36" s="44">
-        <v>8</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="42">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="42.140625" defaultRowHeight="28.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15" style="42" customWidth="1"/>
-    <col min="4" max="16384" width="42.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A2" s="40">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A9" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A10" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A11" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A12" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A13" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A14" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A16" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A17" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A18" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75">
-      <c r="A19" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A20" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A23" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A24" s="40">
-        <v>5.2</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1">
-      <c r="A25" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="27" customHeight="1">
-      <c r="A27" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A28" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1">
-      <c r="A29" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A31" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A32" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1">
-      <c r="A34" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A35" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1">
-      <c r="A36" s="44">
-        <v>8</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="42">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="24" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8" style="56" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="57" customWidth="1"/>
-    <col min="3" max="16384" width="12.5703125" style="56"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-    </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="15">
-        <v>4</v>
-      </c>
-      <c r="D3" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="19">
-        <v>4</v>
-      </c>
-      <c r="D4" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="19">
-        <v>4</v>
-      </c>
-      <c r="D5" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="19">
-        <v>4</v>
-      </c>
-      <c r="D6" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="19">
-        <v>4</v>
-      </c>
-      <c r="D8" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="19">
-        <v>4</v>
-      </c>
-      <c r="D9" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="19">
-        <v>4</v>
-      </c>
-      <c r="D10" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" thickBot="1">
-      <c r="A11" s="28">
-        <v>8</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="24">
-        <v>4</v>
-      </c>
-      <c r="D11" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1">
-      <c r="A12"/>
-      <c r="B12" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="26">
-        <f>SUM(C3:C11)</f>
-        <v>32</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
 </file>
--- a/documents/requirement.xlsx
+++ b/documents/requirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="20100" windowHeight="8235"/>
+    <workbookView xWindow="192" yWindow="72" windowWidth="20100" windowHeight="8232" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="req list" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>Χρήση openweathermap API και JSON API για την ενημέρωση των τρεχουσών καιρικών δεδομένων.</t>
   </si>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Α.Σ</t>
+  </si>
+  <si>
+    <t>Α.Π</t>
+  </si>
+  <si>
+    <t>Α.Α.</t>
+  </si>
+  <si>
+    <t>Γ.Μ</t>
   </si>
 </sst>
 </file>
@@ -600,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,9 +706,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -704,7 +728,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -990,23 +1014,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="78.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="41.4" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="28.8">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1066,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="44.25">
+    <row r="4" spans="1:6" ht="42.6">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
         <v>34</v>
@@ -1102,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
         <v>85</v>
@@ -1194,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
         <v>40</v>
@@ -1212,7 +1236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="4"/>
       <c r="B12" s="7" t="s">
         <v>41</v>
@@ -1286,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6" ht="28.8">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
         <v>46</v>
@@ -1304,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="28.8">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
         <v>47</v>
@@ -1358,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
         <v>50</v>
@@ -1432,7 +1456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="28.8">
       <c r="A24" s="4"/>
       <c r="B24" s="7">
         <v>5.2</v>
@@ -1558,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -1680,23 +1704,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E46"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C32:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
-    <col min="6" max="16" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="41.45" customHeight="1" thickBot="1">
+    <row r="1" spans="2:9" ht="41.4" customHeight="1" thickBot="1">
       <c r="B1" s="31" t="s">
         <v>69</v>
       </c>
@@ -1709,8 +1733,20 @@
       <c r="E1" s="34" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="22.9" customHeight="1" thickBot="1">
+      <c r="F1" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="22.95" customHeight="1" thickBot="1">
       <c r="B2" s="35" t="s">
         <v>86</v>
       </c>
@@ -1718,7 +1754,7 @@
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
     </row>
-    <row r="3" spans="2:5" ht="15.75">
+    <row r="3" spans="2:9" ht="15.6">
       <c r="B3" s="13">
         <v>1</v>
       </c>
@@ -1728,11 +1764,17 @@
       <c r="D3" s="15">
         <v>4</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="30.75">
+      <c r="F3" s="44"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="30.6">
       <c r="B4" s="17" t="s">
         <v>33</v>
       </c>
@@ -1742,11 +1784,17 @@
       <c r="D4" s="19">
         <v>4</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="45.75">
+      <c r="F4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19">
+        <v>4</v>
+      </c>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="2:9" ht="45.6">
       <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
@@ -1756,11 +1804,17 @@
       <c r="D5" s="19">
         <v>8</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.75">
+      <c r="F5" s="21"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19">
+        <v>8</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
@@ -1770,11 +1824,17 @@
       <c r="D6" s="19">
         <v>4</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="30.75">
+      <c r="F6" s="21"/>
+      <c r="G6" s="19">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="2:9" ht="30.6">
       <c r="B7" s="17" t="s">
         <v>85</v>
       </c>
@@ -1784,11 +1844,17 @@
       <c r="D7" s="19">
         <v>4</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75">
+      <c r="F7" s="21">
+        <v>4</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.6">
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1798,11 +1864,17 @@
       <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75">
+      <c r="F8" s="21">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.6">
       <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
@@ -1812,17 +1884,27 @@
       <c r="D9" s="19">
         <v>4</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9" s="21"/>
+      <c r="G9" s="19">
+        <v>4</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="21"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75">
+      <c r="E10" s="42"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.6">
       <c r="B11" s="17" t="s">
         <v>38</v>
       </c>
@@ -1832,11 +1914,17 @@
       <c r="D11" s="19">
         <v>8</v>
       </c>
-      <c r="E11" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75">
+      <c r="E11" s="42">
+        <v>2</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.6">
       <c r="B12" s="17" t="s">
         <v>39</v>
       </c>
@@ -1846,17 +1934,27 @@
       <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="E12" s="42">
+        <v>2</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="21"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="2:5" ht="30.75">
+      <c r="E13" s="42"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="2:9" ht="30.6">
       <c r="B14" s="17" t="s">
         <v>40</v>
       </c>
@@ -1866,11 +1964,17 @@
       <c r="D14" s="19">
         <v>4</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="42">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="30.75">
+      <c r="F14" s="21">
+        <v>4</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="2:9" ht="30.6">
       <c r="B15" s="17" t="s">
         <v>41</v>
       </c>
@@ -1880,11 +1984,17 @@
       <c r="D15" s="19">
         <v>2</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="42">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75">
+      <c r="F15" s="21">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.6">
       <c r="B16" s="17" t="s">
         <v>45</v>
       </c>
@@ -1894,11 +2004,17 @@
       <c r="D16" s="19">
         <v>4</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="42">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="30.75">
+      <c r="F16" s="21"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="30.6">
       <c r="B17" s="17" t="s">
         <v>46</v>
       </c>
@@ -1908,11 +2024,17 @@
       <c r="D17" s="19">
         <v>2</v>
       </c>
-      <c r="E17" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30.75">
+      <c r="E17" s="42">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19">
+        <v>2</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="2:10" ht="30.6">
       <c r="B18" s="17" t="s">
         <v>47</v>
       </c>
@@ -1922,11 +2044,17 @@
       <c r="D18" s="19">
         <v>4</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="42">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="18.75">
+      <c r="F18" s="21">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="2:10" ht="18">
       <c r="B19" s="17" t="s">
         <v>48</v>
       </c>
@@ -1936,11 +2064,17 @@
       <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="42">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" thickBot="1">
+      <c r="F19" s="21"/>
+      <c r="G19" s="19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="2:10" ht="16.2" thickBot="1">
       <c r="B20" s="22" t="s">
         <v>49</v>
       </c>
@@ -1950,11 +2084,17 @@
       <c r="D20" s="24">
         <v>4</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="43">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1">
+      <c r="F20" s="21"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19">
+        <v>4</v>
+      </c>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1">
       <c r="C21" s="30" t="s">
         <v>83</v>
       </c>
@@ -1962,8 +2102,28 @@
         <f>SUM(D3:D20)</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="22.15" customHeight="1" thickBot="1">
+      <c r="F21" s="50">
+        <f>SUM(F3:F20)</f>
+        <v>16</v>
+      </c>
+      <c r="G21" s="51">
+        <f>SUM(G3:G20)</f>
+        <v>16</v>
+      </c>
+      <c r="H21" s="51">
+        <f>SUM(H3:H20)</f>
+        <v>16</v>
+      </c>
+      <c r="I21" s="51">
+        <f>SUM(I2:I20)</f>
+        <v>16</v>
+      </c>
+      <c r="J21" s="26">
+        <f>SUM(F21:I21)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="22.2" customHeight="1" thickBot="1">
       <c r="B22" s="38" t="s">
         <v>87</v>
       </c>
@@ -1971,7 +2131,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
     </row>
-    <row r="23" spans="2:5" ht="15.75">
+    <row r="23" spans="2:10" ht="15.6">
       <c r="B23" s="13" t="s">
         <v>42</v>
       </c>
@@ -1984,8 +2144,14 @@
       <c r="E23" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.75">
+      <c r="F23" s="44">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
@@ -1998,8 +2164,14 @@
       <c r="E24" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="15.75">
+      <c r="F24" s="21"/>
+      <c r="G24" s="19">
+        <v>4</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
       <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
@@ -2012,8 +2184,14 @@
       <c r="E25" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="15.75">
+      <c r="F25" s="21"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19">
+        <v>4</v>
+      </c>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
       <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
@@ -2026,14 +2204,24 @@
       <c r="E26" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26" s="21"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="21"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="2:5" ht="30.75">
+      <c r="F27" s="21"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="2:10" ht="30.6">
       <c r="B28" s="17" t="s">
         <v>50</v>
       </c>
@@ -2046,8 +2234,14 @@
       <c r="E28" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="15.75">
+      <c r="F28" s="21"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.6">
       <c r="B29" s="17" t="s">
         <v>51</v>
       </c>
@@ -2060,8 +2254,14 @@
       <c r="E29" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="30.75">
+      <c r="F29" s="21">
+        <v>2</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" spans="2:10" ht="30.6">
       <c r="B30" s="17" t="s">
         <v>84</v>
       </c>
@@ -2074,8 +2274,14 @@
       <c r="E30" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="15.75">
+      <c r="F30" s="21"/>
+      <c r="G30" s="19">
+        <v>2</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.6">
       <c r="B31" s="17" t="s">
         <v>55</v>
       </c>
@@ -2088,8 +2294,14 @@
       <c r="E31" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="15.75">
+      <c r="F31" s="21"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19">
+        <v>4</v>
+      </c>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.6">
       <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
@@ -2102,8 +2314,14 @@
       <c r="E32" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="15.75">
+      <c r="F32" s="21">
+        <v>2</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.6">
       <c r="B33" s="17" t="s">
         <v>59</v>
       </c>
@@ -2116,8 +2334,14 @@
       <c r="E33" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="16.5" thickBot="1">
+      <c r="F33" s="21"/>
+      <c r="G33" s="19">
+        <v>2</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="46"/>
+    </row>
+    <row r="34" spans="2:10" ht="16.2" thickBot="1">
       <c r="B34" s="28" t="s">
         <v>65</v>
       </c>
@@ -2130,8 +2354,14 @@
       <c r="E34" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1">
+      <c r="F34" s="21">
+        <v>4</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" thickBot="1">
       <c r="C35" s="30" t="s">
         <v>83</v>
       </c>
@@ -2139,8 +2369,28 @@
         <f>SUM(D23:D34)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="19.5" thickBot="1">
+      <c r="F35" s="50">
+        <f>SUM(F23:F34)</f>
+        <v>9</v>
+      </c>
+      <c r="G35" s="51">
+        <f>SUM(G23:G34)</f>
+        <v>8</v>
+      </c>
+      <c r="H35" s="51">
+        <f>SUM(H23:H34)</f>
+        <v>8</v>
+      </c>
+      <c r="I35" s="51">
+        <f>SUM(I23:I34)</f>
+        <v>8</v>
+      </c>
+      <c r="J35" s="26">
+        <f>SUM(F35:I35)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1">
       <c r="B36" s="38" t="s">
         <v>88</v>
       </c>
@@ -2148,7 +2398,7 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
     </row>
-    <row r="37" spans="2:5" ht="15.75">
+    <row r="37" spans="2:10" ht="15.6">
       <c r="B37" s="13" t="s">
         <v>43</v>
       </c>
@@ -2161,8 +2411,14 @@
       <c r="E37" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" ht="15.75">
+      <c r="F37" s="44"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.6">
       <c r="B38" s="17" t="s">
         <v>52</v>
       </c>
@@ -2175,8 +2431,14 @@
       <c r="E38" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" ht="15.75">
+      <c r="F38" s="21"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19">
+        <v>4</v>
+      </c>
+      <c r="I38" s="46"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.6">
       <c r="B39" s="29" t="s">
         <v>66</v>
       </c>
@@ -2189,8 +2451,14 @@
       <c r="E39" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" ht="15.75">
+      <c r="F39" s="21">
+        <v>4</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.6">
       <c r="B40" s="29" t="s">
         <v>67</v>
       </c>
@@ -2203,14 +2471,24 @@
       <c r="E40" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="F40" s="21"/>
+      <c r="G40" s="19">
+        <v>4</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="46"/>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="21"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
-    </row>
-    <row r="42" spans="2:5" ht="15.75">
+      <c r="F41" s="21"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="46"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.6">
       <c r="B42" s="17" t="s">
         <v>60</v>
       </c>
@@ -2223,8 +2501,14 @@
       <c r="E42" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" ht="30.75">
+      <c r="F42" s="21"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="30.6">
       <c r="B43" s="29" t="s">
         <v>62</v>
       </c>
@@ -2237,8 +2521,14 @@
       <c r="E43" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" ht="15.75">
+      <c r="F43" s="21">
+        <v>4</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="46"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.6">
       <c r="B44" s="29" t="s">
         <v>63</v>
       </c>
@@ -2251,8 +2541,14 @@
       <c r="E44" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" ht="16.5" thickBot="1">
+      <c r="F44" s="21"/>
+      <c r="G44" s="19">
+        <v>4</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="46"/>
+    </row>
+    <row r="45" spans="2:10" ht="16.2" thickBot="1">
       <c r="B45" s="28">
         <v>8</v>
       </c>
@@ -2265,13 +2561,39 @@
       <c r="E45" s="25">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" thickBot="1">
+      <c r="F45" s="21"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19">
+        <v>4</v>
+      </c>
+      <c r="I45" s="46"/>
+    </row>
+    <row r="46" spans="2:10" ht="15" thickBot="1">
       <c r="C46" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="26">
         <f>SUM(D37:D45)</f>
+        <v>32</v>
+      </c>
+      <c r="F46" s="47">
+        <f>SUM(F37:F45)</f>
+        <v>8</v>
+      </c>
+      <c r="G46" s="48">
+        <f>SUM(G37:G45)</f>
+        <v>8</v>
+      </c>
+      <c r="H46" s="48">
+        <f>SUM(H37:H45)</f>
+        <v>8</v>
+      </c>
+      <c r="I46" s="48">
+        <f>SUM(I37:I45)</f>
+        <v>8</v>
+      </c>
+      <c r="J46" s="49">
+        <f>SUM(F46:I46)</f>
         <v>32</v>
       </c>
     </row>
